--- a/data-raw/loa.xlsx
+++ b/data-raw/loa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guillaume.noblet\Documents\GitHub\humind.data\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F264E96F-D134-4BB1-A557-0B9A41F91608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A360B3-4EE0-4AC4-BC64-86A7465B6FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sample_frame" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2471" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2471" uniqueCount="886">
   <si>
     <t>admin1</t>
   </si>
@@ -2708,6 +2708,24 @@
   </si>
   <si>
     <t>Mean of HCIM cell</t>
+  </si>
+  <si>
+    <t>% of households by sectoral composite - In acute need - Health</t>
+  </si>
+  <si>
+    <t>% of households by sectoral composite - In acute need - Protection</t>
+  </si>
+  <si>
+    <t>% of households by sectoral composite - In acute need - Education</t>
+  </si>
+  <si>
+    <t>% of households by sectoral composite - In acute need - Food security</t>
+  </si>
+  <si>
+    <t>% of households by sectoral composite - In acute need - WASH</t>
+  </si>
+  <si>
+    <t>% of households by sectoral composite - In acute need - SNFI</t>
   </si>
 </sst>
 </file>
@@ -3534,8 +3552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D84" sqref="D79:D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -6004,7 +6022,7 @@
         <v>21</v>
       </c>
       <c r="D79" s="33" t="s">
-        <v>206</v>
+        <v>880</v>
       </c>
       <c r="E79" s="33" t="s">
         <v>23</v>
@@ -6035,7 +6053,7 @@
         <v>21</v>
       </c>
       <c r="D80" s="33" t="s">
-        <v>208</v>
+        <v>881</v>
       </c>
       <c r="E80" s="33" t="s">
         <v>23</v>
@@ -6066,7 +6084,7 @@
         <v>21</v>
       </c>
       <c r="D81" s="33" t="s">
-        <v>210</v>
+        <v>882</v>
       </c>
       <c r="E81" s="33" t="s">
         <v>23</v>
@@ -6097,7 +6115,7 @@
         <v>21</v>
       </c>
       <c r="D82" s="33" t="s">
-        <v>212</v>
+        <v>883</v>
       </c>
       <c r="E82" s="33" t="s">
         <v>23</v>
@@ -6128,7 +6146,7 @@
         <v>21</v>
       </c>
       <c r="D83" s="33" t="s">
-        <v>214</v>
+        <v>884</v>
       </c>
       <c r="E83" s="33" t="s">
         <v>23</v>
@@ -6159,7 +6177,7 @@
         <v>21</v>
       </c>
       <c r="D84" s="33" t="s">
-        <v>216</v>
+        <v>885</v>
       </c>
       <c r="E84" s="33" t="s">
         <v>23</v>
@@ -6666,7 +6684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B116" sqref="B116"/>
     </sheetView>

--- a/data-raw/loa.xlsx
+++ b/data-raw/loa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guillaume.noblet\Documents\GitHub\humind.data\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B0D148-B7FD-4750-95A0-4D710CEDE102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80E513D-B23D-42E0-A7C2-45F766DE0AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="975" windowWidth="27000" windowHeight="14040" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9960" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sample_frame" sheetId="2" r:id="rId1"/>
@@ -2338,9 +2338,6 @@
     <t>add_lcsi</t>
   </si>
   <si>
-    <t>select_one l_fsl_lsci_cat</t>
-  </si>
-  <si>
     <t>l_etc_access_to_phone_best</t>
   </si>
   <si>
@@ -2428,12 +2425,6 @@
     <t>Catégorie du LCSI - au moins une utilisée</t>
   </si>
   <si>
-    <t>select_one l_fsl_lsci_cat_exhaust</t>
-  </si>
-  <si>
-    <t>fsl_lsci_cat_exhaust</t>
-  </si>
-  <si>
     <t>LCSI category - at least one used or exhausted</t>
   </si>
   <si>
@@ -2720,6 +2711,15 @@
   </si>
   <si>
     <t>% of households by sectoral composite - In acute need - SNFI</t>
+  </si>
+  <si>
+    <t>select_one l_edu_barrier_protection_n</t>
+  </si>
+  <si>
+    <t>fsl_lcsi_cat_exhaust</t>
+  </si>
+  <si>
+    <t>select_one l_fsl_lcsi_cat</t>
   </si>
 </sst>
 </file>
@@ -3474,13 +3474,13 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="4" width="10" style="32" customWidth="1"/>
-    <col min="5" max="16384" width="8.625" style="32"/>
+    <col min="5" max="16384" width="8.59765625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="32" t="s">
         <v>4</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="32" t="s">
         <v>4</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="32" t="s">
         <v>7</v>
       </c>
@@ -3546,28 +3546,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="107.5" customWidth="1"/>
     <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.375" customWidth="1"/>
+    <col min="9" max="9" width="6.3984375" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
-    <col min="11" max="11" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.75" customWidth="1"/>
-    <col min="16382" max="16384" width="10.875" customWidth="1"/>
+    <col min="11" max="11" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.69921875" customWidth="1"/>
+    <col min="16382" max="16384" width="10.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="24" t="s">
         <v>745</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="24" t="s">
         <v>745</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="E3" s="24" t="s">
         <v>23</v>
@@ -3664,7 +3664,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="24" t="s">
         <v>745</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>23</v>
@@ -3695,7 +3695,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="25" t="s">
         <v>27</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="25" t="s">
         <v>27</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="25" t="s">
         <v>27</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="25" t="s">
         <v>27</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="25" t="s">
         <v>27</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="25" t="s">
         <v>27</v>
       </c>
@@ -3881,7 +3881,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="25" t="s">
         <v>27</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="25" t="s">
         <v>27</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="25" t="s">
         <v>27</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="25" t="s">
         <v>27</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="25" t="s">
         <v>27</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="25" t="s">
         <v>27</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="25" t="s">
         <v>27</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="26" t="s">
         <v>59</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="26" t="s">
         <v>59</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
         <v>59</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A21" s="26" t="s">
         <v>59</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A22" s="26" t="s">
         <v>59</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="26" t="s">
         <v>59</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="26" t="s">
         <v>59</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="27" t="s">
         <v>78</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="27" t="s">
         <v>78</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="27" t="s">
         <v>78</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="27" t="s">
         <v>78</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="27" t="s">
         <v>78</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="27" t="s">
         <v>78</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="27" t="s">
         <v>78</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="28" t="s">
         <v>99</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A33" s="29" t="s">
         <v>103</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A34" s="30" t="s">
         <v>107</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A35" s="30" t="s">
         <v>107</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A36" s="30" t="s">
         <v>107</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A37" s="30" t="s">
         <v>107</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A38" s="30" t="s">
         <v>107</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" s="21" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A39" s="23" t="s">
         <v>121</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" s="21" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A40" s="23" t="s">
         <v>121</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" s="21" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A41" s="23" t="s">
         <v>121</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" s="21" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A42" s="23" t="s">
         <v>121</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" s="21" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A43" s="23" t="s">
         <v>121</v>
       </c>
@@ -4932,7 +4932,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" s="21" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A44" s="23" t="s">
         <v>121</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" s="21" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A45" s="23" t="s">
         <v>121</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" s="21" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A46" s="23" t="s">
         <v>121</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" s="21" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A47" s="23" t="s">
         <v>121</v>
       </c>
@@ -5056,7 +5056,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="31" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A48" s="31" t="s">
         <v>149</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="31" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A49" s="31" t="s">
         <v>149</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="31" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A50" s="31" t="s">
         <v>149</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="31" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A51" s="31" t="s">
         <v>149</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="31" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A52" s="31" t="s">
         <v>149</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="31" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A53" s="31" t="s">
         <v>149</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A54" s="33" t="s">
         <v>162</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A55" s="33" t="s">
         <v>162</v>
       </c>
@@ -5292,7 +5292,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A56" s="33" t="s">
         <v>162</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A57" s="33" t="s">
         <v>162</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A58" s="33" t="s">
         <v>162</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A59" s="33" t="s">
         <v>162</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A60" s="33" t="s">
         <v>162</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A61" s="33" t="s">
         <v>162</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A62" s="33" t="s">
         <v>162</v>
       </c>
@@ -5509,7 +5509,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A63" s="33" t="s">
         <v>162</v>
       </c>
@@ -5540,7 +5540,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A64" s="33" t="s">
         <v>162</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A65" s="33" t="s">
         <v>162</v>
       </c>
@@ -5602,7 +5602,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A66" s="33" t="s">
         <v>162</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A67" s="33" t="s">
         <v>162</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A68" s="33" t="s">
         <v>162</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A69" s="33" t="s">
         <v>162</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A70" s="33" t="s">
         <v>162</v>
       </c>
@@ -5757,7 +5757,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A71" s="33" t="s">
         <v>162</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A72" s="33" t="s">
         <v>162</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A73" s="33" t="s">
         <v>162</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A74" s="33" t="s">
         <v>162</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A75" s="33" t="s">
         <v>162</v>
       </c>
@@ -5912,7 +5912,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A76" s="33" t="s">
         <v>162</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A77" s="33" t="s">
         <v>162</v>
       </c>
@@ -5954,7 +5954,7 @@
         <v>21</v>
       </c>
       <c r="D77" s="33" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="E77" s="33" t="s">
         <v>23</v>
@@ -5974,7 +5974,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A78" s="33" t="s">
         <v>162</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>21</v>
       </c>
       <c r="D78" s="33" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="E78" s="33" t="s">
         <v>23</v>
@@ -6005,7 +6005,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A79" s="33" t="s">
         <v>162</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>21</v>
       </c>
       <c r="D79" s="33" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="E79" s="33" t="s">
         <v>23</v>
@@ -6036,7 +6036,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A80" s="33" t="s">
         <v>162</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>21</v>
       </c>
       <c r="D80" s="33" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="E80" s="33" t="s">
         <v>23</v>
@@ -6067,7 +6067,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A81" s="33" t="s">
         <v>162</v>
       </c>
@@ -6078,7 +6078,7 @@
         <v>21</v>
       </c>
       <c r="D81" s="33" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="E81" s="33" t="s">
         <v>23</v>
@@ -6098,7 +6098,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A82" s="33" t="s">
         <v>162</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>21</v>
       </c>
       <c r="D82" s="33" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="E82" s="33" t="s">
         <v>23</v>
@@ -6129,7 +6129,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A83" s="33" t="s">
         <v>162</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A84" s="33" t="s">
         <v>162</v>
       </c>
@@ -6191,7 +6191,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A85" s="33" t="s">
         <v>162</v>
       </c>
@@ -6222,7 +6222,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A86" s="33" t="s">
         <v>162</v>
       </c>
@@ -6253,7 +6253,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A87" s="33" t="s">
         <v>162</v>
       </c>
@@ -6284,7 +6284,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:11" s="34" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A88" s="34" t="s">
         <v>743</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>21</v>
       </c>
       <c r="D88" s="34" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="E88" s="34" t="s">
         <v>23</v>
@@ -6313,18 +6313,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:11" s="34" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A89" s="34" t="s">
         <v>743</v>
       </c>
       <c r="B89" s="34" t="s">
-        <v>787</v>
+        <v>882</v>
       </c>
       <c r="C89" s="34" t="s">
         <v>21</v>
       </c>
       <c r="D89" s="34" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="E89" s="34" t="s">
         <v>23</v>
@@ -6342,18 +6342,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:11" s="34" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A90" s="34" t="s">
         <v>743</v>
       </c>
       <c r="B90" s="34" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C90" s="34" t="s">
         <v>21</v>
       </c>
       <c r="D90" s="34" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="E90" s="34" t="s">
         <v>23</v>
@@ -6365,24 +6365,24 @@
         <v>23</v>
       </c>
       <c r="J90" s="35" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="K90" s="34" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:11" s="34" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A91" s="34" t="s">
         <v>743</v>
       </c>
       <c r="B91" s="34" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C91" s="34" t="s">
         <v>21</v>
       </c>
       <c r="D91" s="34" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E91" s="34" t="s">
         <v>23</v>
@@ -6394,24 +6394,24 @@
         <v>23</v>
       </c>
       <c r="J91" s="35" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="K91" s="34" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="34" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A92" s="34" t="s">
         <v>743</v>
       </c>
       <c r="B92" s="34" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C92" s="34" t="s">
         <v>21</v>
       </c>
       <c r="D92" s="34" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="E92" s="34" t="s">
         <v>23</v>
@@ -6423,24 +6423,24 @@
         <v>23</v>
       </c>
       <c r="J92" s="35" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="K92" s="34" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="34" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A93" s="34" t="s">
         <v>743</v>
       </c>
       <c r="B93" s="34" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="C93" s="34" t="s">
         <v>229</v>
       </c>
       <c r="D93" s="34" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="E93" s="34" t="s">
         <v>23</v>
@@ -6452,24 +6452,24 @@
         <v>23</v>
       </c>
       <c r="J93" s="35" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="K93" s="34" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:11" s="34" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A94" s="34" t="s">
         <v>743</v>
       </c>
       <c r="B94" s="34" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C94" s="34" t="s">
         <v>21</v>
       </c>
       <c r="D94" s="34" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="E94" s="34" t="s">
         <v>23</v>
@@ -6481,24 +6481,24 @@
         <v>23</v>
       </c>
       <c r="J94" s="35" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="K94" s="34" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="1:11" s="34" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A95" s="34" t="s">
         <v>743</v>
       </c>
       <c r="B95" s="34" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C95" s="34" t="s">
         <v>229</v>
       </c>
       <c r="D95" s="34" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="E95" s="34" t="s">
         <v>23</v>
@@ -6510,24 +6510,24 @@
         <v>23</v>
       </c>
       <c r="J95" s="35" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="K95" s="34" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="96" spans="1:11" s="34" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A96" s="34" t="s">
         <v>743</v>
       </c>
       <c r="B96" s="34" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C96" s="34" t="s">
         <v>21</v>
       </c>
       <c r="D96" s="34" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="E96" s="34" t="s">
         <v>23</v>
@@ -6539,24 +6539,24 @@
         <v>23</v>
       </c>
       <c r="J96" s="35" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="K96" s="34" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="97" spans="1:11" s="34" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A97" s="34" t="s">
         <v>743</v>
       </c>
       <c r="B97" s="34" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="C97" s="34" t="s">
         <v>229</v>
       </c>
       <c r="D97" s="34" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="E97" s="34" t="s">
         <v>23</v>
@@ -6568,24 +6568,24 @@
         <v>23</v>
       </c>
       <c r="J97" s="35" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="K97" s="34" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="98" spans="1:11" s="34" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A98" s="34" t="s">
         <v>743</v>
       </c>
       <c r="B98" s="34" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C98" s="34" t="s">
         <v>21</v>
       </c>
       <c r="D98" s="34" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="E98" s="34" t="s">
         <v>23</v>
@@ -6597,7 +6597,7 @@
         <v>23</v>
       </c>
       <c r="J98" s="35" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="K98" s="34" t="s">
         <v>26</v>
@@ -6616,25 +6616,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B116" sqref="B116"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.69921875" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.5" style="16" customWidth="1"/>
-    <col min="3" max="3" width="41.75" style="16" customWidth="1"/>
+    <col min="3" max="3" width="41.69921875" style="16" customWidth="1"/>
     <col min="4" max="4" width="46.5" style="16" customWidth="1"/>
-    <col min="5" max="5" width="52.25" style="16" customWidth="1"/>
+    <col min="5" max="5" width="52.19921875" style="16" customWidth="1"/>
     <col min="6" max="6" width="9" style="16"/>
-    <col min="7" max="7" width="35.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.69921875" style="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5" style="16" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -6660,7 +6660,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>745</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>745</v>
       </c>
@@ -6712,7 +6712,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>745</v>
       </c>
@@ -6738,7 +6738,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
@@ -6764,7 +6764,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
         <v>27</v>
       </c>
@@ -6790,7 +6790,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
         <v>27</v>
       </c>
@@ -6816,7 +6816,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
         <v>27</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
         <v>27</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
         <v>27</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
         <v>27</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
         <v>27</v>
       </c>
@@ -6972,7 +6972,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
         <v>27</v>
       </c>
@@ -6998,7 +6998,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
         <v>27</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
         <v>27</v>
       </c>
@@ -7050,7 +7050,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A17" s="7" t="s">
         <v>27</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
         <v>27</v>
       </c>
@@ -7102,7 +7102,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="7" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
         <v>27</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="8" t="s">
         <v>59</v>
       </c>
@@ -7154,7 +7154,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A21" s="8" t="s">
         <v>59</v>
       </c>
@@ -7180,7 +7180,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A22" s="8" t="s">
         <v>59</v>
       </c>
@@ -7206,7 +7206,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A23" s="8" t="s">
         <v>59</v>
       </c>
@@ -7232,7 +7232,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A24" s="8" t="s">
         <v>59</v>
       </c>
@@ -7258,7 +7258,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A25" s="8" t="s">
         <v>59</v>
       </c>
@@ -7284,7 +7284,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A26" s="8" t="s">
         <v>59</v>
       </c>
@@ -7310,7 +7310,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A27" s="9" t="s">
         <v>78</v>
       </c>
@@ -7336,7 +7336,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A28" s="9" t="s">
         <v>78</v>
       </c>
@@ -7362,7 +7362,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A29" s="9" t="s">
         <v>78</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A30" s="9" t="s">
         <v>78</v>
       </c>
@@ -7414,7 +7414,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A31" s="9" t="s">
         <v>78</v>
       </c>
@@ -7440,12 +7440,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A32" s="9" t="s">
         <v>78</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>240</v>
+        <v>881</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>87</v>
@@ -7466,7 +7466,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A33" s="9" t="s">
         <v>78</v>
       </c>
@@ -7492,7 +7492,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A34" s="9" t="s">
         <v>78</v>
       </c>
@@ -7518,7 +7518,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A35" s="9" t="s">
         <v>78</v>
       </c>
@@ -7544,7 +7544,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A36" s="9" t="s">
         <v>78</v>
       </c>
@@ -7570,7 +7570,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
         <v>78</v>
       </c>
@@ -7596,7 +7596,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A38" s="9" t="s">
         <v>78</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A39" s="9" t="s">
         <v>78</v>
       </c>
@@ -7648,7 +7648,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A40" s="9" t="s">
         <v>78</v>
       </c>
@@ -7674,7 +7674,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A41" s="9" t="s">
         <v>78</v>
       </c>
@@ -7700,7 +7700,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A42" s="9" t="s">
         <v>78</v>
       </c>
@@ -7726,7 +7726,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A43" s="9" t="s">
         <v>78</v>
       </c>
@@ -7752,7 +7752,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A44" s="10" t="s">
         <v>149</v>
       </c>
@@ -7778,7 +7778,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A45" s="10" t="s">
         <v>149</v>
       </c>
@@ -7804,7 +7804,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A46" s="10" t="s">
         <v>149</v>
       </c>
@@ -7830,7 +7830,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A47" s="10" t="s">
         <v>149</v>
       </c>
@@ -7856,7 +7856,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A48" s="10" t="s">
         <v>149</v>
       </c>
@@ -7882,7 +7882,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A49" s="10" t="s">
         <v>149</v>
       </c>
@@ -7908,7 +7908,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A50" s="10" t="s">
         <v>149</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A51" s="10" t="s">
         <v>149</v>
       </c>
@@ -7960,7 +7960,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A52" s="10" t="s">
         <v>149</v>
       </c>
@@ -7986,7 +7986,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A53" s="10" t="s">
         <v>149</v>
       </c>
@@ -8012,7 +8012,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A54" s="10" t="s">
         <v>149</v>
       </c>
@@ -8038,7 +8038,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A55" s="10" t="s">
         <v>149</v>
       </c>
@@ -8064,7 +8064,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A56" s="10" t="s">
         <v>149</v>
       </c>
@@ -8090,7 +8090,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A57" s="10" t="s">
         <v>149</v>
       </c>
@@ -8116,7 +8116,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A58" s="10" t="s">
         <v>149</v>
       </c>
@@ -8142,7 +8142,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A59" s="11" t="s">
         <v>99</v>
       </c>
@@ -8168,7 +8168,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A60" s="12" t="s">
         <v>162</v>
       </c>
@@ -8194,7 +8194,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A61" s="12" t="s">
         <v>162</v>
       </c>
@@ -8220,7 +8220,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A62" s="12" t="s">
         <v>162</v>
       </c>
@@ -8246,7 +8246,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A63" s="12" t="s">
         <v>162</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A64" s="12" t="s">
         <v>162</v>
       </c>
@@ -8298,7 +8298,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A65" s="12" t="s">
         <v>162</v>
       </c>
@@ -8324,7 +8324,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A66" s="12" t="s">
         <v>162</v>
       </c>
@@ -8350,7 +8350,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A67" s="12" t="s">
         <v>162</v>
       </c>
@@ -8376,7 +8376,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A68" s="12" t="s">
         <v>162</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A69" s="12" t="s">
         <v>162</v>
       </c>
@@ -8428,7 +8428,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A70" s="12" t="s">
         <v>162</v>
       </c>
@@ -8454,7 +8454,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A71" s="12" t="s">
         <v>162</v>
       </c>
@@ -8480,7 +8480,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A72" s="12" t="s">
         <v>162</v>
       </c>
@@ -8506,7 +8506,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A73" s="12" t="s">
         <v>162</v>
       </c>
@@ -8532,7 +8532,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:8" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A74" s="12" t="s">
         <v>162</v>
       </c>
@@ -8558,7 +8558,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A75" s="12" t="s">
         <v>162</v>
       </c>
@@ -8584,7 +8584,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A76" s="12" t="s">
         <v>162</v>
       </c>
@@ -8610,7 +8610,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:8" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A77" s="12" t="s">
         <v>162</v>
       </c>
@@ -8636,7 +8636,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A78" s="12" t="s">
         <v>162</v>
       </c>
@@ -8662,7 +8662,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:8" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A79" s="12" t="s">
         <v>162</v>
       </c>
@@ -8688,7 +8688,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A80" s="12" t="s">
         <v>162</v>
       </c>
@@ -8714,7 +8714,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A81" s="12" t="s">
         <v>162</v>
       </c>
@@ -8740,7 +8740,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A82" s="12" t="s">
         <v>162</v>
       </c>
@@ -8766,7 +8766,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A83" s="12" t="s">
         <v>162</v>
       </c>
@@ -8792,7 +8792,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A84" s="12" t="s">
         <v>162</v>
       </c>
@@ -8818,7 +8818,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A85" s="12" t="s">
         <v>162</v>
       </c>
@@ -8844,7 +8844,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A86" s="12" t="s">
         <v>162</v>
       </c>
@@ -8870,7 +8870,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A87" s="12" t="s">
         <v>162</v>
       </c>
@@ -8896,7 +8896,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:8" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A88" s="12" t="s">
         <v>162</v>
       </c>
@@ -8922,7 +8922,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:8" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A89" s="12" t="s">
         <v>162</v>
       </c>
@@ -8948,7 +8948,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:8" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A90" s="12" t="s">
         <v>162</v>
       </c>
@@ -8974,7 +8974,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:8" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A91" s="12" t="s">
         <v>162</v>
       </c>
@@ -9000,7 +9000,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="1:8" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A92" s="12" t="s">
         <v>162</v>
       </c>
@@ -9026,7 +9026,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A93" s="12" t="s">
         <v>162</v>
       </c>
@@ -9052,7 +9052,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A94" s="13" t="s">
         <v>103</v>
       </c>
@@ -9078,7 +9078,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="1:8" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A95" s="15" t="s">
         <v>107</v>
       </c>
@@ -9104,7 +9104,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A96" s="15" t="s">
         <v>107</v>
       </c>
@@ -9130,7 +9130,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="97" spans="1:8" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A97" s="15" t="s">
         <v>107</v>
       </c>
@@ -9156,7 +9156,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="98" spans="1:8" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A98" s="15" t="s">
         <v>107</v>
       </c>
@@ -9182,7 +9182,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="99" spans="1:8" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A99" s="15" t="s">
         <v>107</v>
       </c>
@@ -9208,7 +9208,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="1:8" s="14" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A100" s="14" t="s">
         <v>121</v>
       </c>
@@ -9234,7 +9234,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:8" s="14" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A101" s="14" t="s">
         <v>121</v>
       </c>
@@ -9260,7 +9260,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="1:8" s="14" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A102" s="14" t="s">
         <v>121</v>
       </c>
@@ -9286,7 +9286,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="103" spans="1:8" s="14" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A103" s="14" t="s">
         <v>121</v>
       </c>
@@ -9312,7 +9312,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="1:8" s="14" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A104" s="14" t="s">
         <v>121</v>
       </c>
@@ -9338,7 +9338,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="105" spans="1:8" s="14" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A105" s="14" t="s">
         <v>121</v>
       </c>
@@ -9364,7 +9364,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="1:8" s="14" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A106" s="14" t="s">
         <v>121</v>
       </c>
@@ -9390,7 +9390,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="107" spans="1:8" s="14" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A107" s="14" t="s">
         <v>121</v>
       </c>
@@ -9416,7 +9416,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="108" spans="1:8" s="14" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A108" s="14" t="s">
         <v>121</v>
       </c>
@@ -9442,21 +9442,21 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:8" s="34" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A109" s="34" t="s">
         <v>743</v>
       </c>
       <c r="B109" s="34" t="s">
-        <v>756</v>
+        <v>883</v>
       </c>
       <c r="C109" s="34" t="s">
         <v>754</v>
       </c>
       <c r="D109" s="34" t="s">
+        <v>783</v>
+      </c>
+      <c r="E109" s="34" t="s">
         <v>784</v>
-      </c>
-      <c r="E109" s="34" t="s">
-        <v>785</v>
       </c>
       <c r="F109" s="34" t="s">
         <v>24</v>
@@ -9468,21 +9468,21 @@
         <v>26</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="34" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A110" s="34" t="s">
         <v>743</v>
       </c>
       <c r="B110" s="34" t="s">
+        <v>883</v>
+      </c>
+      <c r="C110" s="34" t="s">
+        <v>882</v>
+      </c>
+      <c r="D110" s="34" t="s">
+        <v>785</v>
+      </c>
+      <c r="E110" s="34" t="s">
         <v>786</v>
-      </c>
-      <c r="C110" s="34" t="s">
-        <v>787</v>
-      </c>
-      <c r="D110" s="34" t="s">
-        <v>788</v>
-      </c>
-      <c r="E110" s="34" t="s">
-        <v>789</v>
       </c>
       <c r="F110" s="34" t="s">
         <v>24</v>
@@ -9494,85 +9494,85 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:8" s="34" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A111" s="34" t="s">
         <v>743</v>
       </c>
       <c r="B111" s="34" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="C111" s="34" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="D111" s="34" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="E111" s="34" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="F111" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G111" s="35" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="H111" s="34" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="112" spans="1:8" s="34" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A112" s="34" t="s">
         <v>743</v>
       </c>
       <c r="B112" s="34" t="s">
+        <v>792</v>
+      </c>
+      <c r="C112" s="34" t="s">
+        <v>788</v>
+      </c>
+      <c r="D112" s="34" t="s">
         <v>795</v>
       </c>
-      <c r="C112" s="34" t="s">
-        <v>791</v>
-      </c>
-      <c r="D112" s="34" t="s">
+      <c r="E112" s="34" t="s">
+        <v>794</v>
+      </c>
+      <c r="F112" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G112" s="35" t="s">
         <v>798</v>
       </c>
-      <c r="E112" s="34" t="s">
-        <v>797</v>
-      </c>
-      <c r="F112" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="G112" s="35" t="s">
-        <v>801</v>
-      </c>
       <c r="H112" s="34" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="1:8" s="34" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A113" s="34" t="s">
         <v>743</v>
       </c>
       <c r="B113" s="34" t="s">
+        <v>793</v>
+      </c>
+      <c r="C113" s="34" t="s">
+        <v>787</v>
+      </c>
+      <c r="D113" s="34" t="s">
         <v>796</v>
       </c>
-      <c r="C113" s="34" t="s">
-        <v>790</v>
-      </c>
-      <c r="D113" s="34" t="s">
-        <v>799</v>
-      </c>
       <c r="E113" s="34" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="F113" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G113" s="35" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="H113" s="34" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="1:8" s="34" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A114" s="34" t="s">
         <v>743</v>
       </c>
@@ -9580,51 +9580,51 @@
         <v>240</v>
       </c>
       <c r="C114" s="34" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="D114" s="34" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="E114" s="34" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="F114" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G114" s="35" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="H114" s="34" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="1:8" s="34" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A115" s="34" t="s">
         <v>743</v>
       </c>
       <c r="B115" s="34" t="s">
+        <v>813</v>
+      </c>
+      <c r="C115" s="34" t="s">
+        <v>814</v>
+      </c>
+      <c r="D115" s="34" t="s">
+        <v>815</v>
+      </c>
+      <c r="E115" s="34" t="s">
         <v>816</v>
       </c>
-      <c r="C115" s="34" t="s">
+      <c r="F115" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G115" s="35" t="s">
         <v>817</v>
       </c>
-      <c r="D115" s="34" t="s">
-        <v>818</v>
-      </c>
-      <c r="E115" s="34" t="s">
-        <v>819</v>
-      </c>
-      <c r="F115" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="G115" s="35" t="s">
-        <v>820</v>
-      </c>
       <c r="H115" s="34" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="116" spans="1:8" s="34" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A116" s="34" t="s">
         <v>743</v>
       </c>
@@ -9632,51 +9632,51 @@
         <v>240</v>
       </c>
       <c r="C116" s="34" t="s">
+        <v>831</v>
+      </c>
+      <c r="D116" s="34" t="s">
+        <v>828</v>
+      </c>
+      <c r="E116" s="34" t="s">
         <v>834</v>
       </c>
-      <c r="D116" s="34" t="s">
-        <v>831</v>
-      </c>
-      <c r="E116" s="34" t="s">
-        <v>837</v>
-      </c>
       <c r="F116" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G116" s="35" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="H116" s="34" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="1:8" s="34" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A117" s="34" t="s">
         <v>743</v>
       </c>
       <c r="B117" s="34" t="s">
+        <v>832</v>
+      </c>
+      <c r="C117" s="34" t="s">
+        <v>830</v>
+      </c>
+      <c r="D117" s="34" t="s">
+        <v>829</v>
+      </c>
+      <c r="E117" s="34" t="s">
         <v>835</v>
       </c>
-      <c r="C117" s="34" t="s">
+      <c r="F117" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G117" s="35" t="s">
         <v>833</v>
       </c>
-      <c r="D117" s="34" t="s">
-        <v>832</v>
-      </c>
-      <c r="E117" s="34" t="s">
-        <v>838</v>
-      </c>
-      <c r="F117" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="G117" s="35" t="s">
-        <v>836</v>
-      </c>
       <c r="H117" s="34" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="1:8" s="34" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A118" s="34" t="s">
         <v>743</v>
       </c>
@@ -9684,45 +9684,45 @@
         <v>240</v>
       </c>
       <c r="C118" s="34" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="D118" s="34" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="E118" s="34" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="F118" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G118" s="35" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="H118" s="34" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="1:8" s="34" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A119" s="34" t="s">
         <v>743</v>
       </c>
       <c r="B119" s="34" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="C119" s="34" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="D119" s="34" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="E119" s="34" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="F119" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G119" s="35" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="H119" s="34" t="s">
         <v>26</v>
@@ -9744,21 +9744,21 @@
   <dimension ref="A1:H193"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D189" sqref="D189:D193"/>
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A152" sqref="A152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="36.125" style="36" customWidth="1"/>
+    <col min="1" max="1" width="36.09765625" style="36" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="36" customWidth="1"/>
-    <col min="3" max="3" width="26.875" style="36" customWidth="1"/>
-    <col min="4" max="4" width="30.375" style="36" customWidth="1"/>
-    <col min="5" max="8" width="12.75" style="36" customWidth="1"/>
+    <col min="3" max="3" width="26.8984375" style="36" customWidth="1"/>
+    <col min="4" max="4" width="30.3984375" style="36" customWidth="1"/>
+    <col min="5" max="8" width="12.69921875" style="36" customWidth="1"/>
     <col min="9" max="16384" width="9" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="36" t="s">
         <v>499</v>
       </c>
@@ -9784,7 +9784,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="36" t="s">
         <v>504</v>
       </c>
@@ -9798,7 +9798,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="36" t="s">
         <v>504</v>
       </c>
@@ -9812,7 +9812,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="36" t="s">
         <v>504</v>
       </c>
@@ -9826,7 +9826,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="36" t="s">
         <v>504</v>
       </c>
@@ -9840,7 +9840,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="36" t="s">
         <v>516</v>
       </c>
@@ -9854,7 +9854,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="36" t="s">
         <v>516</v>
       </c>
@@ -9868,7 +9868,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="36" t="s">
         <v>516</v>
       </c>
@@ -9882,7 +9882,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="36" t="s">
         <v>516</v>
       </c>
@@ -9896,7 +9896,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="36" t="s">
         <v>516</v>
       </c>
@@ -9910,7 +9910,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="36" t="s">
         <v>516</v>
       </c>
@@ -9924,7 +9924,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="36" t="s">
         <v>534</v>
       </c>
@@ -9938,7 +9938,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="36" t="s">
         <v>534</v>
       </c>
@@ -9952,7 +9952,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="36" t="s">
         <v>534</v>
       </c>
@@ -9966,7 +9966,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="36" t="s">
         <v>534</v>
       </c>
@@ -9980,7 +9980,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="36" t="s">
         <v>534</v>
       </c>
@@ -9994,7 +9994,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="36" t="s">
         <v>547</v>
       </c>
@@ -10008,7 +10008,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="36" t="s">
         <v>547</v>
       </c>
@@ -10022,7 +10022,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="36" t="s">
         <v>547</v>
       </c>
@@ -10036,7 +10036,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="36" t="s">
         <v>547</v>
       </c>
@@ -10050,7 +10050,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="36" t="s">
         <v>547</v>
       </c>
@@ -10064,7 +10064,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="36" t="s">
         <v>547</v>
       </c>
@@ -10078,7 +10078,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="36" t="s">
         <v>547</v>
       </c>
@@ -10092,7 +10092,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="36" t="s">
         <v>547</v>
       </c>
@@ -10106,7 +10106,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="36" t="s">
         <v>547</v>
       </c>
@@ -10120,7 +10120,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="36" t="s">
         <v>547</v>
       </c>
@@ -10134,7 +10134,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="36" t="s">
         <v>564</v>
       </c>
@@ -10148,7 +10148,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="36" t="s">
         <v>564</v>
       </c>
@@ -10162,7 +10162,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="36" t="s">
         <v>564</v>
       </c>
@@ -10176,7 +10176,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="36" t="s">
         <v>564</v>
       </c>
@@ -10190,7 +10190,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="36" t="s">
         <v>573</v>
       </c>
@@ -10204,7 +10204,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="36" t="s">
         <v>573</v>
       </c>
@@ -10218,7 +10218,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="36" t="s">
         <v>573</v>
       </c>
@@ -10232,7 +10232,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="36" t="s">
         <v>573</v>
       </c>
@@ -10246,7 +10246,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="36" t="s">
         <v>584</v>
       </c>
@@ -10260,7 +10260,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="36" t="s">
         <v>584</v>
       </c>
@@ -10274,7 +10274,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="36" t="s">
         <v>584</v>
       </c>
@@ -10288,7 +10288,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="36" t="s">
         <v>594</v>
       </c>
@@ -10302,7 +10302,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="36" t="s">
         <v>594</v>
       </c>
@@ -10316,7 +10316,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="36" t="s">
         <v>594</v>
       </c>
@@ -10330,7 +10330,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="36" t="s">
         <v>594</v>
       </c>
@@ -10344,7 +10344,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="36" t="s">
         <v>604</v>
       </c>
@@ -10358,7 +10358,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="36" t="s">
         <v>604</v>
       </c>
@@ -10372,7 +10372,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="36" t="s">
         <v>604</v>
       </c>
@@ -10386,7 +10386,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="36" t="s">
         <v>604</v>
       </c>
@@ -10400,7 +10400,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="36" t="s">
         <v>611</v>
       </c>
@@ -10414,7 +10414,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="36" t="s">
         <v>611</v>
       </c>
@@ -10428,7 +10428,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="36" t="s">
         <v>611</v>
       </c>
@@ -10442,7 +10442,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="36" t="s">
         <v>611</v>
       </c>
@@ -10456,7 +10456,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="36" t="s">
         <v>611</v>
       </c>
@@ -10470,7 +10470,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="3" t="s">
         <v>621</v>
       </c>
@@ -10484,7 +10484,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" s="3" t="s">
         <v>621</v>
       </c>
@@ -10498,7 +10498,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" s="3" t="s">
         <v>621</v>
       </c>
@@ -10512,7 +10512,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" s="3" t="s">
         <v>621</v>
       </c>
@@ -10526,7 +10526,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" s="36" t="s">
         <v>625</v>
       </c>
@@ -10540,7 +10540,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" s="36" t="s">
         <v>625</v>
       </c>
@@ -10554,7 +10554,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" s="36" t="s">
         <v>625</v>
       </c>
@@ -10568,7 +10568,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" s="36" t="s">
         <v>625</v>
       </c>
@@ -10582,7 +10582,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" s="36" t="s">
         <v>636</v>
       </c>
@@ -10596,7 +10596,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" s="36" t="s">
         <v>636</v>
       </c>
@@ -10610,7 +10610,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" s="36" t="s">
         <v>636</v>
       </c>
@@ -10624,7 +10624,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" s="36" t="s">
         <v>636</v>
       </c>
@@ -10638,7 +10638,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" s="36" t="s">
         <v>646</v>
       </c>
@@ -10652,7 +10652,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" s="36" t="s">
         <v>646</v>
       </c>
@@ -10666,7 +10666,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" s="36" t="s">
         <v>646</v>
       </c>
@@ -10680,7 +10680,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" s="36" t="s">
         <v>646</v>
       </c>
@@ -10694,7 +10694,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" s="36" t="s">
         <v>646</v>
       </c>
@@ -10708,7 +10708,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82" s="36" t="s">
         <v>655</v>
       </c>
@@ -10722,7 +10722,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83" s="36" t="s">
         <v>655</v>
       </c>
@@ -10736,7 +10736,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84" s="36" t="s">
         <v>655</v>
       </c>
@@ -10750,7 +10750,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85" s="36" t="s">
         <v>655</v>
       </c>
@@ -10764,7 +10764,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" s="36" t="s">
         <v>660</v>
       </c>
@@ -10778,7 +10778,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88" s="36" t="s">
         <v>660</v>
       </c>
@@ -10792,7 +10792,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" s="36" t="s">
         <v>660</v>
       </c>
@@ -10806,7 +10806,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90" s="36" t="s">
         <v>660</v>
       </c>
@@ -10820,7 +10820,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91" s="36" t="s">
         <v>660</v>
       </c>
@@ -10834,7 +10834,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92" s="36" t="s">
         <v>660</v>
       </c>
@@ -10848,7 +10848,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93" s="36" t="s">
         <v>660</v>
       </c>
@@ -10862,7 +10862,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94" s="36" t="s">
         <v>660</v>
       </c>
@@ -10876,7 +10876,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95" s="36" t="s">
         <v>660</v>
       </c>
@@ -10890,7 +10890,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A96" s="36" t="s">
         <v>660</v>
       </c>
@@ -10904,7 +10904,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97" s="36" t="s">
         <v>660</v>
       </c>
@@ -10918,7 +10918,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98" s="36" t="s">
         <v>660</v>
       </c>
@@ -10932,7 +10932,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A99" s="36" t="s">
         <v>660</v>
       </c>
@@ -10946,7 +10946,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100" s="36" t="s">
         <v>660</v>
       </c>
@@ -10960,7 +10960,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A101" s="36" t="s">
         <v>660</v>
       </c>
@@ -10974,7 +10974,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A102" s="36" t="s">
         <v>660</v>
       </c>
@@ -10988,7 +10988,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A103" s="36" t="s">
         <v>660</v>
       </c>
@@ -11002,7 +11002,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A104" s="36" t="s">
         <v>660</v>
       </c>
@@ -11016,7 +11016,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A105" s="36" t="s">
         <v>660</v>
       </c>
@@ -11030,7 +11030,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A106" s="36" t="s">
         <v>660</v>
       </c>
@@ -11044,7 +11044,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A107" s="36" t="s">
         <v>660</v>
       </c>
@@ -11058,7 +11058,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A108" s="36" t="s">
         <v>660</v>
       </c>
@@ -11072,7 +11072,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A109" s="36" t="s">
         <v>660</v>
       </c>
@@ -11086,7 +11086,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A110" s="36" t="s">
         <v>660</v>
       </c>
@@ -11100,7 +11100,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A112" s="36" t="s">
         <v>709</v>
       </c>
@@ -11114,7 +11114,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A113" s="36" t="s">
         <v>709</v>
       </c>
@@ -11128,7 +11128,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A115" s="36" t="s">
         <v>716</v>
       </c>
@@ -11142,7 +11142,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A116" s="36" t="s">
         <v>716</v>
       </c>
@@ -11156,7 +11156,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A118" s="36" t="s">
         <v>717</v>
       </c>
@@ -11170,7 +11170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A119" s="36" t="s">
         <v>717</v>
       </c>
@@ -11184,7 +11184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A121" s="36" t="s">
         <v>718</v>
       </c>
@@ -11198,7 +11198,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A122" s="36" t="s">
         <v>718</v>
       </c>
@@ -11212,7 +11212,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A123" s="36" t="s">
         <v>718</v>
       </c>
@@ -11226,7 +11226,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A125" s="36" t="s">
         <v>728</v>
       </c>
@@ -11240,7 +11240,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A126" s="36" t="s">
         <v>728</v>
       </c>
@@ -11254,7 +11254,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A127" s="36" t="s">
         <v>728</v>
       </c>
@@ -11268,7 +11268,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A128" s="36" t="s">
         <v>728</v>
       </c>
@@ -11282,7 +11282,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A129" s="36" t="s">
         <v>728</v>
       </c>
@@ -11296,7 +11296,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A131" s="36" t="s">
         <v>740</v>
       </c>
@@ -11310,7 +11310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A132" s="36" t="s">
         <v>740</v>
       </c>
@@ -11324,7 +11324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A133" s="36" t="s">
         <v>740</v>
       </c>
@@ -11338,7 +11338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A134" s="36" t="s">
         <v>740</v>
       </c>
@@ -11352,7 +11352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A135" s="36" t="s">
         <v>740</v>
       </c>
@@ -11366,7 +11366,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A137" s="36" t="s">
         <v>742</v>
       </c>
@@ -11380,7 +11380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A138" s="36" t="s">
         <v>742</v>
       </c>
@@ -11394,9 +11394,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A140" s="36" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B140" s="36" t="s">
         <v>535</v>
@@ -11408,51 +11408,51 @@
         <v>566</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A141" s="36" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B141" s="36" t="s">
+        <v>758</v>
+      </c>
+      <c r="C141" s="36" t="s">
+        <v>769</v>
+      </c>
+      <c r="D141" s="36" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A142" s="36" t="s">
+        <v>756</v>
+      </c>
+      <c r="B142" s="36" t="s">
         <v>759</v>
       </c>
-      <c r="C141" s="36" t="s">
-        <v>770</v>
-      </c>
-      <c r="D141" s="36" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A142" s="36" t="s">
-        <v>757</v>
-      </c>
-      <c r="B142" s="36" t="s">
+      <c r="C142" s="36" t="s">
+        <v>767</v>
+      </c>
+      <c r="D142" s="36" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A143" s="36" t="s">
+        <v>756</v>
+      </c>
+      <c r="B143" s="36" t="s">
         <v>760</v>
       </c>
-      <c r="C142" s="36" t="s">
-        <v>768</v>
-      </c>
-      <c r="D142" s="36" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A143" s="36" t="s">
-        <v>757</v>
-      </c>
-      <c r="B143" s="36" t="s">
-        <v>761</v>
-      </c>
       <c r="C143" s="36" t="s">
+        <v>765</v>
+      </c>
+      <c r="D143" s="36" t="s">
         <v>766</v>
       </c>
-      <c r="D143" s="36" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A144" s="36" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B144" s="36" t="s">
         <v>531</v>
@@ -11464,65 +11464,65 @@
         <v>533</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A146" s="36" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B146" s="36" t="s">
+        <v>761</v>
+      </c>
+      <c r="C146" s="36" t="s">
+        <v>772</v>
+      </c>
+      <c r="D146" s="36" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A147" s="36" t="s">
+        <v>757</v>
+      </c>
+      <c r="B147" s="36" t="s">
         <v>762</v>
       </c>
-      <c r="C146" s="36" t="s">
+      <c r="C147" s="36" t="s">
         <v>773</v>
       </c>
-      <c r="D146" s="36" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A147" s="36" t="s">
-        <v>758</v>
-      </c>
-      <c r="B147" s="36" t="s">
+      <c r="D147" s="36" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A148" s="36" t="s">
+        <v>757</v>
+      </c>
+      <c r="B148" s="36" t="s">
         <v>763</v>
       </c>
-      <c r="C147" s="36" t="s">
+      <c r="C148" s="36" t="s">
         <v>774</v>
       </c>
-      <c r="D147" s="36" t="s">
+      <c r="D148" s="36" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A148" s="36" t="s">
-        <v>758</v>
-      </c>
-      <c r="B148" s="36" t="s">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A149" s="36" t="s">
+        <v>757</v>
+      </c>
+      <c r="B149" s="36" t="s">
         <v>764</v>
       </c>
-      <c r="C148" s="36" t="s">
+      <c r="C149" s="36" t="s">
         <v>775</v>
       </c>
-      <c r="D148" s="36" t="s">
+      <c r="D149" s="36" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A149" s="36" t="s">
-        <v>758</v>
-      </c>
-      <c r="B149" s="36" t="s">
-        <v>765</v>
-      </c>
-      <c r="C149" s="36" t="s">
-        <v>776</v>
-      </c>
-      <c r="D149" s="36" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A150" s="36" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B150" s="36" t="s">
         <v>531</v>
@@ -11534,9 +11534,9 @@
         <v>533</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A152" s="36" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B152" s="36" t="s">
         <v>565</v>
@@ -11548,37 +11548,37 @@
         <v>574</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A153" s="36" t="s">
+        <v>779</v>
+      </c>
+      <c r="B153" s="36" t="s">
         <v>780</v>
       </c>
-      <c r="B153" s="36" t="s">
+      <c r="C153" s="36" t="s">
+        <v>780</v>
+      </c>
+      <c r="D153" s="36" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A154" s="36" t="s">
+        <v>779</v>
+      </c>
+      <c r="B154" s="36" t="s">
         <v>781</v>
       </c>
-      <c r="C153" s="36" t="s">
+      <c r="C154" s="36" t="s">
         <v>781</v>
       </c>
-      <c r="D153" s="36" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A154" s="36" t="s">
-        <v>780</v>
-      </c>
-      <c r="B154" s="36" t="s">
+      <c r="D154" s="36" t="s">
         <v>782</v>
       </c>
-      <c r="C154" s="36" t="s">
-        <v>782</v>
-      </c>
-      <c r="D154" s="36" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A155" s="36" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B155" s="36" t="s">
         <v>506</v>
@@ -11590,51 +11590,51 @@
         <v>507</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A157" s="36" t="s">
+        <v>799</v>
+      </c>
+      <c r="B157" s="36" t="s">
+        <v>801</v>
+      </c>
+      <c r="C157" s="36" t="s">
+        <v>801</v>
+      </c>
+      <c r="D157" s="36" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A158" s="36" t="s">
+        <v>799</v>
+      </c>
+      <c r="B158" s="36" t="s">
         <v>802</v>
       </c>
-      <c r="B157" s="36" t="s">
-        <v>804</v>
-      </c>
-      <c r="C157" s="36" t="s">
-        <v>804</v>
-      </c>
-      <c r="D157" s="36" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A158" s="36" t="s">
+      <c r="C158" s="36" t="s">
         <v>802</v>
       </c>
-      <c r="B158" s="36" t="s">
+      <c r="D158" s="36" t="s">
         <v>805</v>
       </c>
-      <c r="C158" s="36" t="s">
-        <v>805</v>
-      </c>
-      <c r="D158" s="36" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A159" s="36" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B159" s="36" t="s">
+        <v>803</v>
+      </c>
+      <c r="C159" s="36" t="s">
+        <v>803</v>
+      </c>
+      <c r="D159" s="36" t="s">
         <v>806</v>
       </c>
-      <c r="C159" s="36" t="s">
-        <v>806</v>
-      </c>
-      <c r="D159" s="36" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A161" s="36" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B161" s="36" t="s">
         <v>565</v>
@@ -11646,65 +11646,65 @@
         <v>566</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A162" s="36" t="s">
+        <v>800</v>
+      </c>
+      <c r="B162" s="36" t="s">
+        <v>807</v>
+      </c>
+      <c r="C162" s="36" t="s">
+        <v>807</v>
+      </c>
+      <c r="D162" s="36" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A163" s="36" t="s">
+        <v>800</v>
+      </c>
+      <c r="B163" s="36" t="s">
+        <v>802</v>
+      </c>
+      <c r="C163" s="36" t="s">
+        <v>802</v>
+      </c>
+      <c r="D163" s="36" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A164" s="36" t="s">
+        <v>800</v>
+      </c>
+      <c r="B164" s="36" t="s">
         <v>803</v>
       </c>
-      <c r="B162" s="36" t="s">
+      <c r="C164" s="36" t="s">
+        <v>803</v>
+      </c>
+      <c r="D164" s="36" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A165" s="36" t="s">
+        <v>800</v>
+      </c>
+      <c r="B165" s="36" t="s">
+        <v>808</v>
+      </c>
+      <c r="C165" s="36" t="s">
+        <v>808</v>
+      </c>
+      <c r="D165" s="36" t="s">
         <v>810</v>
       </c>
-      <c r="C162" s="36" t="s">
-        <v>810</v>
-      </c>
-      <c r="D162" s="36" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A163" s="36" t="s">
-        <v>803</v>
-      </c>
-      <c r="B163" s="36" t="s">
-        <v>805</v>
-      </c>
-      <c r="C163" s="36" t="s">
-        <v>805</v>
-      </c>
-      <c r="D163" s="36" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A164" s="36" t="s">
-        <v>803</v>
-      </c>
-      <c r="B164" s="36" t="s">
-        <v>806</v>
-      </c>
-      <c r="C164" s="36" t="s">
-        <v>806</v>
-      </c>
-      <c r="D164" s="36" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A165" s="36" t="s">
-        <v>803</v>
-      </c>
-      <c r="B165" s="36" t="s">
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A167" s="36" t="s">
         <v>811</v>
-      </c>
-      <c r="C165" s="36" t="s">
-        <v>811</v>
-      </c>
-      <c r="D165" s="36" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A167" s="36" t="s">
-        <v>814</v>
       </c>
       <c r="B167" s="36">
         <v>0</v>
@@ -11716,9 +11716,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A168" s="36" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B168" s="36">
         <v>1</v>
@@ -11730,9 +11730,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A169" s="36" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B169" s="36">
         <v>2</v>
@@ -11744,9 +11744,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A170" s="36" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B170" s="36">
         <v>3</v>
@@ -11758,9 +11758,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A171" s="36" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B171" s="36">
         <v>4</v>
@@ -11772,9 +11772,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A172" s="36" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B172" s="36">
         <v>5</v>
@@ -11786,9 +11786,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A173" s="36" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B173" s="36">
         <v>6</v>
@@ -11800,228 +11800,228 @@
         <v>6</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A175" s="36" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B175" s="36" t="s">
+        <v>822</v>
+      </c>
+      <c r="C175" s="36" t="s">
+        <v>822</v>
+      </c>
+      <c r="D175" s="36" t="s">
         <v>825</v>
       </c>
-      <c r="C175" s="36" t="s">
-        <v>825</v>
-      </c>
-      <c r="D175" s="36" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A176" s="36" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B176" s="36" t="s">
+        <v>823</v>
+      </c>
+      <c r="C176" s="36" t="s">
+        <v>823</v>
+      </c>
+      <c r="D176" s="36" t="s">
         <v>826</v>
       </c>
-      <c r="C176" s="36" t="s">
-        <v>826</v>
-      </c>
-      <c r="D176" s="36" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A177" s="36" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B177" s="36" t="s">
+        <v>824</v>
+      </c>
+      <c r="C177" s="36" t="s">
+        <v>824</v>
+      </c>
+      <c r="D177" s="36" t="s">
         <v>827</v>
       </c>
-      <c r="C177" s="36" t="s">
-        <v>827</v>
-      </c>
-      <c r="D177" s="36" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A179" s="36" t="s">
+        <v>836</v>
+      </c>
+      <c r="B179" s="36" t="s">
+        <v>837</v>
+      </c>
+      <c r="C179" s="36" t="s">
+        <v>837</v>
+      </c>
+      <c r="D179" s="36" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A180" s="36" t="s">
+        <v>836</v>
+      </c>
+      <c r="B180" s="36" t="s">
+        <v>838</v>
+      </c>
+      <c r="C180" s="36" t="s">
+        <v>838</v>
+      </c>
+      <c r="D180" s="36" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A181" s="36" t="s">
+        <v>836</v>
+      </c>
+      <c r="B181" s="36" t="s">
         <v>839</v>
       </c>
-      <c r="B179" s="36" t="s">
-        <v>840</v>
-      </c>
-      <c r="C179" s="36" t="s">
-        <v>840</v>
-      </c>
-      <c r="D179" s="36" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A180" s="36" t="s">
+      <c r="C181" s="36" t="s">
         <v>839</v>
       </c>
-      <c r="B180" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="C180" s="36" t="s">
-        <v>841</v>
-      </c>
-      <c r="D180" s="36" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A181" s="36" t="s">
+      <c r="D181" s="36" t="s">
         <v>839</v>
       </c>
-      <c r="B181" s="36" t="s">
-        <v>842</v>
-      </c>
-      <c r="C181" s="36" t="s">
-        <v>842</v>
-      </c>
-      <c r="D181" s="36" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A183" s="36" t="s">
+        <v>846</v>
+      </c>
+      <c r="B183" s="36" t="s">
+        <v>848</v>
+      </c>
+      <c r="C183" s="36" t="s">
+        <v>848</v>
+      </c>
+      <c r="D183" s="36" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A184" s="36" t="s">
+        <v>846</v>
+      </c>
+      <c r="B184" s="36" t="s">
         <v>849</v>
       </c>
-      <c r="B183" s="36" t="s">
+      <c r="C184" s="36" t="s">
+        <v>849</v>
+      </c>
+      <c r="D184" s="36" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A185" s="36" t="s">
+        <v>846</v>
+      </c>
+      <c r="B185" s="36" t="s">
+        <v>850</v>
+      </c>
+      <c r="C185" s="36" t="s">
+        <v>850</v>
+      </c>
+      <c r="D185" s="36" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A186" s="36" t="s">
+        <v>846</v>
+      </c>
+      <c r="B186" s="36" t="s">
         <v>851</v>
       </c>
-      <c r="C183" s="36" t="s">
+      <c r="C186" s="36" t="s">
         <v>851</v>
       </c>
-      <c r="D183" s="36" t="s">
+      <c r="D186" s="36" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A184" s="36" t="s">
-        <v>849</v>
-      </c>
-      <c r="B184" s="36" t="s">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A187" s="36" t="s">
+        <v>846</v>
+      </c>
+      <c r="B187" s="36" t="s">
         <v>852</v>
       </c>
-      <c r="C184" s="36" t="s">
+      <c r="C187" s="36" t="s">
         <v>852</v>
       </c>
-      <c r="D184" s="36" t="s">
+      <c r="D187" s="36" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A185" s="36" t="s">
-        <v>849</v>
-      </c>
-      <c r="B185" s="36" t="s">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A189" s="36" t="s">
         <v>853</v>
       </c>
-      <c r="C185" s="36" t="s">
+      <c r="B189" s="36" t="s">
+        <v>854</v>
+      </c>
+      <c r="C189" s="36" t="s">
+        <v>854</v>
+      </c>
+      <c r="D189" s="36" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A190" s="36" t="s">
         <v>853</v>
       </c>
-      <c r="D185" s="36" t="s">
+      <c r="B190" s="36" t="s">
+        <v>855</v>
+      </c>
+      <c r="C190" s="36" t="s">
+        <v>855</v>
+      </c>
+      <c r="D190" s="36" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A191" s="36" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A186" s="36" t="s">
-        <v>849</v>
-      </c>
-      <c r="B186" s="36" t="s">
-        <v>854</v>
-      </c>
-      <c r="C186" s="36" t="s">
-        <v>854</v>
-      </c>
-      <c r="D186" s="36" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A187" s="36" t="s">
-        <v>849</v>
-      </c>
-      <c r="B187" s="36" t="s">
-        <v>855</v>
-      </c>
-      <c r="C187" s="36" t="s">
-        <v>855</v>
-      </c>
-      <c r="D187" s="36" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A189" s="36" t="s">
+      <c r="B191" s="36" t="s">
         <v>856</v>
       </c>
-      <c r="B189" s="36" t="s">
+      <c r="C191" s="36" t="s">
+        <v>856</v>
+      </c>
+      <c r="D191" s="36" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A192" s="36" t="s">
+        <v>853</v>
+      </c>
+      <c r="B192" s="36" t="s">
         <v>857</v>
       </c>
-      <c r="C189" s="36" t="s">
+      <c r="C192" s="36" t="s">
         <v>857</v>
       </c>
-      <c r="D189" s="36" t="s">
+      <c r="D192" s="36" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A190" s="36" t="s">
-        <v>856</v>
-      </c>
-      <c r="B190" s="36" t="s">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A193" s="36" t="s">
+        <v>853</v>
+      </c>
+      <c r="B193" s="36" t="s">
         <v>858</v>
       </c>
-      <c r="C190" s="36" t="s">
+      <c r="C193" s="36" t="s">
         <v>858</v>
       </c>
-      <c r="D190" s="36" t="s">
+      <c r="D193" s="36" t="s">
         <v>858</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A191" s="36" t="s">
-        <v>856</v>
-      </c>
-      <c r="B191" s="36" t="s">
-        <v>859</v>
-      </c>
-      <c r="C191" s="36" t="s">
-        <v>859</v>
-      </c>
-      <c r="D191" s="36" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A192" s="36" t="s">
-        <v>856</v>
-      </c>
-      <c r="B192" s="36" t="s">
-        <v>860</v>
-      </c>
-      <c r="C192" s="36" t="s">
-        <v>860</v>
-      </c>
-      <c r="D192" s="36" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A193" s="36" t="s">
-        <v>856</v>
-      </c>
-      <c r="B193" s="36" t="s">
-        <v>861</v>
-      </c>
-      <c r="C193" s="36" t="s">
-        <v>861</v>
-      </c>
-      <c r="D193" s="36" t="s">
-        <v>861</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/loa.xlsx
+++ b/data-raw/loa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guillaume.noblet\Documents\GitHub\humind.data\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80E513D-B23D-42E0-A7C2-45F766DE0AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA64FA4-81CF-4001-B9BD-797CBBA07546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9960" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sample_frame" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2453" uniqueCount="884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2515" uniqueCount="893">
   <si>
     <t>admin1</t>
   </si>
@@ -2720,6 +2720,33 @@
   </si>
   <si>
     <t>select_one l_fsl_lcsi_cat</t>
+  </si>
+  <si>
+    <t>comp_wash_score</t>
+  </si>
+  <si>
+    <t>% of households by sectoral composite - Score - Health</t>
+  </si>
+  <si>
+    <t>% of households by sectoral composite - Score - Protection</t>
+  </si>
+  <si>
+    <t>% of households by sectoral composite - Score - Education</t>
+  </si>
+  <si>
+    <t>% of households by sectoral composite - Score - Food security</t>
+  </si>
+  <si>
+    <t>% of households by sectoral composite - Score - WASH</t>
+  </si>
+  <si>
+    <t>% of households by sectoral composite - Score - SNFI</t>
+  </si>
+  <si>
+    <t>Sectoral composite score - WASH</t>
+  </si>
+  <si>
+    <t>Score de la composante sectorielle - EHA</t>
   </si>
 </sst>
 </file>
@@ -3270,8 +3297,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:K98" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:K98" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:K104" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:K104" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K47">
     <sortCondition ref="A1:A47"/>
   </sortState>
@@ -3544,10 +3571,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K98"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -5762,13 +5789,13 @@
         <v>162</v>
       </c>
       <c r="B71" s="33" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="C71" s="33" t="s">
         <v>21</v>
       </c>
       <c r="D71" s="33" t="s">
-        <v>204</v>
+        <v>885</v>
       </c>
       <c r="E71" s="33" t="s">
         <v>23</v>
@@ -5793,13 +5820,13 @@
         <v>162</v>
       </c>
       <c r="B72" s="33" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="C72" s="33" t="s">
         <v>21</v>
       </c>
       <c r="D72" s="33" t="s">
-        <v>206</v>
+        <v>886</v>
       </c>
       <c r="E72" s="33" t="s">
         <v>23</v>
@@ -5824,13 +5851,13 @@
         <v>162</v>
       </c>
       <c r="B73" s="33" t="s">
-        <v>207</v>
+        <v>173</v>
       </c>
       <c r="C73" s="33" t="s">
         <v>21</v>
       </c>
       <c r="D73" s="33" t="s">
-        <v>208</v>
+        <v>887</v>
       </c>
       <c r="E73" s="33" t="s">
         <v>23</v>
@@ -5855,13 +5882,13 @@
         <v>162</v>
       </c>
       <c r="B74" s="33" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="C74" s="33" t="s">
         <v>21</v>
       </c>
       <c r="D74" s="33" t="s">
-        <v>210</v>
+        <v>888</v>
       </c>
       <c r="E74" s="33" t="s">
         <v>23</v>
@@ -5886,13 +5913,13 @@
         <v>162</v>
       </c>
       <c r="B75" s="33" t="s">
-        <v>211</v>
+        <v>884</v>
       </c>
       <c r="C75" s="33" t="s">
         <v>21</v>
       </c>
       <c r="D75" s="33" t="s">
-        <v>212</v>
+        <v>889</v>
       </c>
       <c r="E75" s="33" t="s">
         <v>23</v>
@@ -5917,13 +5944,13 @@
         <v>162</v>
       </c>
       <c r="B76" s="33" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="C76" s="33" t="s">
         <v>21</v>
       </c>
       <c r="D76" s="33" t="s">
-        <v>214</v>
+        <v>890</v>
       </c>
       <c r="E76" s="33" t="s">
         <v>23</v>
@@ -5948,13 +5975,13 @@
         <v>162</v>
       </c>
       <c r="B77" s="33" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="C77" s="33" t="s">
         <v>21</v>
       </c>
       <c r="D77" s="33" t="s">
-        <v>875</v>
+        <v>204</v>
       </c>
       <c r="E77" s="33" t="s">
         <v>23</v>
@@ -5979,13 +6006,13 @@
         <v>162</v>
       </c>
       <c r="B78" s="33" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="C78" s="33" t="s">
         <v>21</v>
       </c>
       <c r="D78" s="33" t="s">
-        <v>876</v>
+        <v>206</v>
       </c>
       <c r="E78" s="33" t="s">
         <v>23</v>
@@ -6010,13 +6037,13 @@
         <v>162</v>
       </c>
       <c r="B79" s="33" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C79" s="33" t="s">
         <v>21</v>
       </c>
       <c r="D79" s="33" t="s">
-        <v>877</v>
+        <v>208</v>
       </c>
       <c r="E79" s="33" t="s">
         <v>23</v>
@@ -6041,13 +6068,13 @@
         <v>162</v>
       </c>
       <c r="B80" s="33" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C80" s="33" t="s">
         <v>21</v>
       </c>
       <c r="D80" s="33" t="s">
-        <v>878</v>
+        <v>210</v>
       </c>
       <c r="E80" s="33" t="s">
         <v>23</v>
@@ -6072,13 +6099,13 @@
         <v>162</v>
       </c>
       <c r="B81" s="33" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C81" s="33" t="s">
         <v>21</v>
       </c>
       <c r="D81" s="33" t="s">
-        <v>879</v>
+        <v>212</v>
       </c>
       <c r="E81" s="33" t="s">
         <v>23</v>
@@ -6103,13 +6130,13 @@
         <v>162</v>
       </c>
       <c r="B82" s="33" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C82" s="33" t="s">
         <v>21</v>
       </c>
       <c r="D82" s="33" t="s">
-        <v>880</v>
+        <v>214</v>
       </c>
       <c r="E82" s="33" t="s">
         <v>23</v>
@@ -6134,13 +6161,13 @@
         <v>162</v>
       </c>
       <c r="B83" s="33" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C83" s="33" t="s">
         <v>21</v>
       </c>
       <c r="D83" s="33" t="s">
-        <v>222</v>
+        <v>875</v>
       </c>
       <c r="E83" s="33" t="s">
         <v>23</v>
@@ -6154,7 +6181,7 @@
         <v>23</v>
       </c>
       <c r="J83" s="33" t="s">
-        <v>223</v>
+        <v>165</v>
       </c>
       <c r="K83" s="33" t="s">
         <v>26</v>
@@ -6165,13 +6192,13 @@
         <v>162</v>
       </c>
       <c r="B84" s="33" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C84" s="33" t="s">
         <v>21</v>
       </c>
       <c r="D84" s="33" t="s">
-        <v>225</v>
+        <v>876</v>
       </c>
       <c r="E84" s="33" t="s">
         <v>23</v>
@@ -6185,7 +6212,7 @@
         <v>23</v>
       </c>
       <c r="J84" s="33" t="s">
-        <v>223</v>
+        <v>168</v>
       </c>
       <c r="K84" s="33" t="s">
         <v>26</v>
@@ -6196,13 +6223,13 @@
         <v>162</v>
       </c>
       <c r="B85" s="33" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C85" s="33" t="s">
         <v>21</v>
       </c>
       <c r="D85" s="33" t="s">
-        <v>227</v>
+        <v>877</v>
       </c>
       <c r="E85" s="33" t="s">
         <v>23</v>
@@ -6216,7 +6243,7 @@
         <v>23</v>
       </c>
       <c r="J85" s="33" t="s">
-        <v>223</v>
+        <v>175</v>
       </c>
       <c r="K85" s="33" t="s">
         <v>26</v>
@@ -6227,13 +6254,13 @@
         <v>162</v>
       </c>
       <c r="B86" s="33" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C86" s="33" t="s">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="D86" s="33" t="s">
-        <v>230</v>
+        <v>878</v>
       </c>
       <c r="E86" s="33" t="s">
         <v>23</v>
@@ -6247,7 +6274,7 @@
         <v>23</v>
       </c>
       <c r="J86" s="33" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="K86" s="33" t="s">
         <v>26</v>
@@ -6258,13 +6285,13 @@
         <v>162</v>
       </c>
       <c r="B87" s="33" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="C87" s="33" t="s">
         <v>21</v>
       </c>
       <c r="D87" s="33" t="s">
-        <v>232</v>
+        <v>879</v>
       </c>
       <c r="E87" s="33" t="s">
         <v>23</v>
@@ -6278,183 +6305,195 @@
         <v>23</v>
       </c>
       <c r="J87" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="K87" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+      <c r="A88" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="B88" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="C88" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D88" s="33" t="s">
+        <v>880</v>
+      </c>
+      <c r="E88" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F88" s="33"/>
+      <c r="G88" s="33"/>
+      <c r="H88" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="I88" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="J88" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="K88" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+      <c r="A89" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="B89" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="C89" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D89" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="E89" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F89" s="33"/>
+      <c r="G89" s="33"/>
+      <c r="H89" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="I89" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="J89" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="K87" s="33" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.4">
-      <c r="A88" s="34" t="s">
-        <v>743</v>
-      </c>
-      <c r="B88" s="34" t="s">
-        <v>754</v>
-      </c>
-      <c r="C88" s="34" t="s">
+      <c r="K89" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+      <c r="A90" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="B90" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="C90" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D88" s="34" t="s">
-        <v>862</v>
-      </c>
-      <c r="E88" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="H88" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="I88" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="J88" s="35" t="s">
-        <v>755</v>
-      </c>
-      <c r="K88" s="34" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.4">
-      <c r="A89" s="34" t="s">
-        <v>743</v>
-      </c>
-      <c r="B89" s="34" t="s">
-        <v>882</v>
-      </c>
-      <c r="C89" s="34" t="s">
+      <c r="D90" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="E90" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F90" s="33"/>
+      <c r="G90" s="33"/>
+      <c r="H90" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="I90" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="J90" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="K90" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+      <c r="A91" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="B91" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="C91" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D89" s="34" t="s">
-        <v>863</v>
-      </c>
-      <c r="E89" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="H89" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="I89" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="J89" s="35" t="s">
-        <v>755</v>
-      </c>
-      <c r="K89" s="34" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.4">
-      <c r="A90" s="34" t="s">
-        <v>743</v>
-      </c>
-      <c r="B90" s="34" t="s">
-        <v>789</v>
-      </c>
-      <c r="C90" s="34" t="s">
+      <c r="D91" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="E91" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F91" s="33"/>
+      <c r="G91" s="33"/>
+      <c r="H91" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="I91" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="J91" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="K91" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+      <c r="A92" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="B92" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="C92" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="D92" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="E92" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F92" s="33"/>
+      <c r="G92" s="33"/>
+      <c r="H92" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="I92" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="J92" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="K92" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+      <c r="A93" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="B93" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="C93" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D90" s="34" t="s">
-        <v>866</v>
-      </c>
-      <c r="E90" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="H90" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="I90" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="J90" s="35" t="s">
-        <v>798</v>
-      </c>
-      <c r="K90" s="34" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.4">
-      <c r="A91" s="34" t="s">
-        <v>743</v>
-      </c>
-      <c r="B91" s="34" t="s">
-        <v>788</v>
-      </c>
-      <c r="C91" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="D91" s="34" t="s">
-        <v>864</v>
-      </c>
-      <c r="E91" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="H91" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="I91" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="J91" s="35" t="s">
-        <v>798</v>
-      </c>
-      <c r="K91" s="34" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.4">
-      <c r="A92" s="34" t="s">
-        <v>743</v>
-      </c>
-      <c r="B92" s="34" t="s">
-        <v>787</v>
-      </c>
-      <c r="C92" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="D92" s="34" t="s">
-        <v>865</v>
-      </c>
-      <c r="E92" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="H92" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="I92" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="J92" s="35" t="s">
-        <v>798</v>
-      </c>
-      <c r="K92" s="34" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.4">
-      <c r="A93" s="34" t="s">
-        <v>743</v>
-      </c>
-      <c r="B93" s="34" t="s">
-        <v>819</v>
-      </c>
-      <c r="C93" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="D93" s="34" t="s">
-        <v>873</v>
-      </c>
-      <c r="E93" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="H93" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="I93" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="J93" s="35" t="s">
-        <v>817</v>
-      </c>
-      <c r="K93" s="34" t="s">
+      <c r="D93" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="E93" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F93" s="33"/>
+      <c r="G93" s="33"/>
+      <c r="H93" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="I93" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="J93" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="K93" s="33" t="s">
         <v>26</v>
       </c>
     </row>
@@ -6463,13 +6502,13 @@
         <v>743</v>
       </c>
       <c r="B94" s="34" t="s">
-        <v>814</v>
+        <v>754</v>
       </c>
       <c r="C94" s="34" t="s">
         <v>21</v>
       </c>
       <c r="D94" s="34" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="E94" s="34" t="s">
         <v>23</v>
@@ -6481,7 +6520,7 @@
         <v>23</v>
       </c>
       <c r="J94" s="35" t="s">
-        <v>817</v>
+        <v>755</v>
       </c>
       <c r="K94" s="34" t="s">
         <v>26</v>
@@ -6492,13 +6531,13 @@
         <v>743</v>
       </c>
       <c r="B95" s="34" t="s">
-        <v>831</v>
+        <v>882</v>
       </c>
       <c r="C95" s="34" t="s">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="D95" s="34" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
       <c r="E95" s="34" t="s">
         <v>23</v>
@@ -6510,7 +6549,7 @@
         <v>23</v>
       </c>
       <c r="J95" s="35" t="s">
-        <v>833</v>
+        <v>755</v>
       </c>
       <c r="K95" s="34" t="s">
         <v>26</v>
@@ -6521,13 +6560,13 @@
         <v>743</v>
       </c>
       <c r="B96" s="34" t="s">
-        <v>830</v>
+        <v>789</v>
       </c>
       <c r="C96" s="34" t="s">
         <v>21</v>
       </c>
       <c r="D96" s="34" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E96" s="34" t="s">
         <v>23</v>
@@ -6539,7 +6578,7 @@
         <v>23</v>
       </c>
       <c r="J96" s="35" t="s">
-        <v>833</v>
+        <v>798</v>
       </c>
       <c r="K96" s="34" t="s">
         <v>26</v>
@@ -6550,13 +6589,13 @@
         <v>743</v>
       </c>
       <c r="B97" s="34" t="s">
-        <v>842</v>
+        <v>788</v>
       </c>
       <c r="C97" s="34" t="s">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="D97" s="34" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="E97" s="34" t="s">
         <v>23</v>
@@ -6568,7 +6607,7 @@
         <v>23</v>
       </c>
       <c r="J97" s="35" t="s">
-        <v>843</v>
+        <v>798</v>
       </c>
       <c r="K97" s="34" t="s">
         <v>26</v>
@@ -6579,27 +6618,201 @@
         <v>743</v>
       </c>
       <c r="B98" s="34" t="s">
-        <v>847</v>
+        <v>787</v>
       </c>
       <c r="C98" s="34" t="s">
         <v>21</v>
       </c>
       <c r="D98" s="34" t="s">
+        <v>865</v>
+      </c>
+      <c r="E98" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H98" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="I98" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J98" s="35" t="s">
+        <v>798</v>
+      </c>
+      <c r="K98" s="34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+      <c r="A99" s="34" t="s">
+        <v>743</v>
+      </c>
+      <c r="B99" s="34" t="s">
+        <v>819</v>
+      </c>
+      <c r="C99" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="D99" s="34" t="s">
+        <v>873</v>
+      </c>
+      <c r="E99" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H99" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="I99" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J99" s="35" t="s">
+        <v>817</v>
+      </c>
+      <c r="K99" s="34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+      <c r="A100" s="34" t="s">
+        <v>743</v>
+      </c>
+      <c r="B100" s="34" t="s">
+        <v>814</v>
+      </c>
+      <c r="C100" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" s="34" t="s">
+        <v>867</v>
+      </c>
+      <c r="E100" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H100" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="I100" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J100" s="35" t="s">
+        <v>817</v>
+      </c>
+      <c r="K100" s="34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+      <c r="A101" s="34" t="s">
+        <v>743</v>
+      </c>
+      <c r="B101" s="34" t="s">
+        <v>831</v>
+      </c>
+      <c r="C101" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="D101" s="34" t="s">
+        <v>872</v>
+      </c>
+      <c r="E101" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H101" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="I101" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J101" s="35" t="s">
+        <v>833</v>
+      </c>
+      <c r="K101" s="34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+      <c r="A102" s="34" t="s">
+        <v>743</v>
+      </c>
+      <c r="B102" s="34" t="s">
+        <v>830</v>
+      </c>
+      <c r="C102" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D102" s="34" t="s">
+        <v>868</v>
+      </c>
+      <c r="E102" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H102" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="I102" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J102" s="35" t="s">
+        <v>833</v>
+      </c>
+      <c r="K102" s="34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+      <c r="A103" s="34" t="s">
+        <v>743</v>
+      </c>
+      <c r="B103" s="34" t="s">
+        <v>842</v>
+      </c>
+      <c r="C103" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="D103" s="34" t="s">
+        <v>874</v>
+      </c>
+      <c r="E103" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H103" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="I103" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J103" s="35" t="s">
+        <v>843</v>
+      </c>
+      <c r="K103" s="34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+      <c r="A104" s="34" t="s">
+        <v>743</v>
+      </c>
+      <c r="B104" s="34" t="s">
+        <v>847</v>
+      </c>
+      <c r="C104" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D104" s="34" t="s">
         <v>869</v>
       </c>
-      <c r="E98" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="H98" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="I98" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="J98" s="35" t="s">
+      <c r="E104" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H104" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="I104" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J104" s="35" t="s">
         <v>843</v>
       </c>
-      <c r="K98" s="34" t="s">
+      <c r="K104" s="34" t="s">
         <v>26</v>
       </c>
     </row>
@@ -6614,11 +6827,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B110" sqref="B110"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -8488,19 +8701,19 @@
         <v>395</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>192</v>
+        <v>884</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>420</v>
+        <v>891</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>421</v>
+        <v>892</v>
       </c>
       <c r="F72" s="12" t="s">
         <v>24</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="H72" s="12" t="s">
         <v>26</v>
@@ -8514,13 +8727,13 @@
         <v>395</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F73" s="12" t="s">
         <v>24</v>
@@ -8540,13 +8753,13 @@
         <v>395</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F74" s="12" t="s">
         <v>24</v>
@@ -8566,13 +8779,13 @@
         <v>395</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F75" s="12" t="s">
         <v>24</v>
@@ -8592,13 +8805,13 @@
         <v>395</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F76" s="12" t="s">
         <v>24</v>
@@ -8615,22 +8828,22 @@
         <v>162</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>430</v>
+        <v>395</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="F77" s="12" t="s">
         <v>24</v>
       </c>
       <c r="G77" s="12" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="H77" s="12" t="s">
         <v>26</v>
@@ -8644,19 +8857,19 @@
         <v>430</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F78" s="12" t="s">
         <v>24</v>
       </c>
       <c r="G78" s="12" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H78" s="12" t="s">
         <v>26</v>
@@ -8670,19 +8883,19 @@
         <v>430</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F79" s="12" t="s">
         <v>24</v>
       </c>
       <c r="G79" s="12" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H79" s="12" t="s">
         <v>26</v>
@@ -8696,19 +8909,19 @@
         <v>430</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F80" s="12" t="s">
         <v>24</v>
       </c>
       <c r="G80" s="12" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="H80" s="12" t="s">
         <v>26</v>
@@ -8722,19 +8935,19 @@
         <v>430</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F81" s="12" t="s">
         <v>24</v>
       </c>
       <c r="G81" s="12" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H81" s="12" t="s">
         <v>26</v>
@@ -8748,19 +8961,19 @@
         <v>430</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F82" s="12" t="s">
         <v>24</v>
       </c>
       <c r="G82" s="12" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="H82" s="12" t="s">
         <v>26</v>
@@ -8774,19 +8987,19 @@
         <v>430</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="F83" s="12" t="s">
         <v>24</v>
       </c>
       <c r="G83" s="12" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="H83" s="12" t="s">
         <v>26</v>
@@ -8800,19 +9013,19 @@
         <v>430</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F84" s="12" t="s">
         <v>24</v>
       </c>
       <c r="G84" s="12" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H84" s="12" t="s">
         <v>26</v>
@@ -8826,19 +9039,19 @@
         <v>430</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F85" s="12" t="s">
         <v>24</v>
       </c>
       <c r="G85" s="12" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H85" s="12" t="s">
         <v>26</v>
@@ -8852,19 +9065,19 @@
         <v>430</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F86" s="12" t="s">
         <v>24</v>
       </c>
       <c r="G86" s="12" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="H86" s="12" t="s">
         <v>26</v>
@@ -8878,19 +9091,19 @@
         <v>430</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F87" s="12" t="s">
         <v>24</v>
       </c>
       <c r="G87" s="12" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H87" s="12" t="s">
         <v>26</v>
@@ -8904,19 +9117,19 @@
         <v>430</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F88" s="12" t="s">
         <v>24</v>
       </c>
       <c r="G88" s="12" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="H88" s="12" t="s">
         <v>26</v>
@@ -8927,22 +9140,22 @@
         <v>162</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>395</v>
+        <v>430</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F89" s="12" t="s">
         <v>24</v>
       </c>
       <c r="G89" s="12" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="H89" s="12" t="s">
         <v>26</v>
@@ -8953,16 +9166,16 @@
         <v>162</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>430</v>
+        <v>395</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F90" s="12" t="s">
         <v>24</v>
@@ -8982,13 +9195,13 @@
         <v>430</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F91" s="12" t="s">
         <v>24</v>
@@ -9005,16 +9218,16 @@
         <v>162</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>240</v>
+        <v>430</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F92" s="12" t="s">
         <v>24</v>
@@ -9031,16 +9244,16 @@
         <v>162</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>451</v>
+        <v>240</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F93" s="12" t="s">
         <v>24</v>
@@ -9052,55 +9265,55 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.4">
-      <c r="A94" s="13" t="s">
+    <row r="94" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+      <c r="A94" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="E94" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="F94" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G94" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="H94" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+      <c r="A95" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B94" s="13" t="s">
+      <c r="B95" s="13" t="s">
         <v>454</v>
       </c>
-      <c r="C94" s="13" t="s">
+      <c r="C95" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="D94" s="13" t="s">
+      <c r="D95" s="13" t="s">
         <v>455</v>
       </c>
-      <c r="E94" s="13" t="s">
+      <c r="E95" s="13" t="s">
         <v>456</v>
       </c>
-      <c r="F94" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G94" s="29" t="s">
+      <c r="F95" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G95" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="H94" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
-      <c r="A95" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B95" s="15" t="s">
-        <v>457</v>
-      </c>
-      <c r="C95" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="D95" s="15" t="s">
-        <v>458</v>
-      </c>
-      <c r="E95" s="15" t="s">
-        <v>459</v>
-      </c>
-      <c r="F95" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G95" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="H95" s="15" t="s">
+      <c r="H95" s="13" t="s">
         <v>26</v>
       </c>
     </row>
@@ -9109,16 +9322,16 @@
         <v>107</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E96" s="15" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F96" s="15" t="s">
         <v>24</v>
@@ -9135,22 +9348,22 @@
         <v>107</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E97" s="15" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F97" s="15" t="s">
         <v>24</v>
       </c>
       <c r="G97" s="30" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H97" s="15" t="s">
         <v>26</v>
@@ -9161,16 +9374,16 @@
         <v>107</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E98" s="15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F98" s="15" t="s">
         <v>24</v>
@@ -9187,50 +9400,50 @@
         <v>107</v>
       </c>
       <c r="B99" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D99" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="E99" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="F99" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G99" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="H99" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+      <c r="A100" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B100" s="15" t="s">
         <v>469</v>
       </c>
-      <c r="C99" s="15" t="s">
+      <c r="C100" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="D99" s="15" t="s">
+      <c r="D100" s="15" t="s">
         <v>470</v>
       </c>
-      <c r="E99" s="15" t="s">
+      <c r="E100" s="15" t="s">
         <v>471</v>
       </c>
-      <c r="F99" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G99" s="15" t="s">
+      <c r="F100" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G100" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="H99" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.4">
-      <c r="A100" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B100" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="C100" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="D100" s="14" t="s">
-        <v>473</v>
-      </c>
-      <c r="E100" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="F100" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G100" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="H100" s="14" t="s">
+      <c r="H100" s="15" t="s">
         <v>26</v>
       </c>
     </row>
@@ -9239,22 +9452,22 @@
         <v>121</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E101" s="14" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F101" s="14" t="s">
         <v>24</v>
       </c>
       <c r="G101" s="23" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H101" s="14" t="s">
         <v>26</v>
@@ -9265,22 +9478,22 @@
         <v>121</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E102" s="14" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F102" s="14" t="s">
         <v>24</v>
       </c>
       <c r="G102" s="23" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H102" s="14" t="s">
         <v>26</v>
@@ -9291,22 +9504,22 @@
         <v>121</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E103" s="14" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F103" s="14" t="s">
         <v>24</v>
       </c>
       <c r="G103" s="23" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H103" s="14" t="s">
         <v>26</v>
@@ -9317,22 +9530,22 @@
         <v>121</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D104" s="14" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E104" s="14" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="F104" s="14" t="s">
         <v>24</v>
       </c>
       <c r="G104" s="23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H104" s="14" t="s">
         <v>26</v>
@@ -9343,22 +9556,22 @@
         <v>121</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D105" s="14" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E105" s="14" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F105" s="14" t="s">
         <v>24</v>
       </c>
       <c r="G105" s="23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H105" s="14" t="s">
         <v>26</v>
@@ -9369,22 +9582,22 @@
         <v>121</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D106" s="14" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E106" s="14" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F106" s="14" t="s">
         <v>24</v>
       </c>
       <c r="G106" s="23" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H106" s="14" t="s">
         <v>26</v>
@@ -9395,22 +9608,22 @@
         <v>121</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D107" s="14" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E107" s="14" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F107" s="14" t="s">
         <v>24</v>
       </c>
       <c r="G107" s="23" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H107" s="14" t="s">
         <v>26</v>
@@ -9421,50 +9634,50 @@
         <v>121</v>
       </c>
       <c r="B108" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="C108" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D108" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="E108" s="14" t="s">
+        <v>495</v>
+      </c>
+      <c r="F108" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G108" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="H108" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+      <c r="A109" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B109" s="14" t="s">
         <v>496</v>
       </c>
-      <c r="C108" s="14" t="s">
+      <c r="C109" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="D108" s="14" t="s">
+      <c r="D109" s="14" t="s">
         <v>497</v>
       </c>
-      <c r="E108" s="14" t="s">
+      <c r="E109" s="14" t="s">
         <v>498</v>
       </c>
-      <c r="F108" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G108" s="23" t="s">
+      <c r="F109" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G109" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="H108" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.4">
-      <c r="A109" s="34" t="s">
-        <v>743</v>
-      </c>
-      <c r="B109" s="34" t="s">
-        <v>883</v>
-      </c>
-      <c r="C109" s="34" t="s">
-        <v>754</v>
-      </c>
-      <c r="D109" s="34" t="s">
-        <v>783</v>
-      </c>
-      <c r="E109" s="34" t="s">
-        <v>784</v>
-      </c>
-      <c r="F109" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="G109" s="35" t="s">
-        <v>755</v>
-      </c>
-      <c r="H109" s="34" t="s">
+      <c r="H109" s="14" t="s">
         <v>26</v>
       </c>
     </row>
@@ -9476,13 +9689,13 @@
         <v>883</v>
       </c>
       <c r="C110" s="34" t="s">
-        <v>882</v>
+        <v>754</v>
       </c>
       <c r="D110" s="34" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E110" s="34" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F110" s="34" t="s">
         <v>24</v>
@@ -9499,22 +9712,22 @@
         <v>743</v>
       </c>
       <c r="B111" s="34" t="s">
-        <v>812</v>
+        <v>883</v>
       </c>
       <c r="C111" s="34" t="s">
-        <v>789</v>
+        <v>882</v>
       </c>
       <c r="D111" s="34" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="E111" s="34" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="F111" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G111" s="35" t="s">
-        <v>798</v>
+        <v>755</v>
       </c>
       <c r="H111" s="34" t="s">
         <v>26</v>
@@ -9525,16 +9738,16 @@
         <v>743</v>
       </c>
       <c r="B112" s="34" t="s">
-        <v>792</v>
+        <v>812</v>
       </c>
       <c r="C112" s="34" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="D112" s="34" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="E112" s="34" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="F112" s="34" t="s">
         <v>24</v>
@@ -9551,16 +9764,16 @@
         <v>743</v>
       </c>
       <c r="B113" s="34" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C113" s="34" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D113" s="34" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E113" s="34" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="F113" s="34" t="s">
         <v>24</v>
@@ -9577,22 +9790,22 @@
         <v>743</v>
       </c>
       <c r="B114" s="34" t="s">
-        <v>240</v>
+        <v>793</v>
       </c>
       <c r="C114" s="34" t="s">
-        <v>819</v>
+        <v>787</v>
       </c>
       <c r="D114" s="34" t="s">
-        <v>820</v>
+        <v>796</v>
       </c>
       <c r="E114" s="34" t="s">
-        <v>821</v>
+        <v>797</v>
       </c>
       <c r="F114" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G114" s="35" t="s">
-        <v>817</v>
+        <v>798</v>
       </c>
       <c r="H114" s="34" t="s">
         <v>26</v>
@@ -9603,16 +9816,16 @@
         <v>743</v>
       </c>
       <c r="B115" s="34" t="s">
-        <v>813</v>
+        <v>240</v>
       </c>
       <c r="C115" s="34" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="D115" s="34" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="E115" s="34" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="F115" s="34" t="s">
         <v>24</v>
@@ -9629,22 +9842,22 @@
         <v>743</v>
       </c>
       <c r="B116" s="34" t="s">
-        <v>240</v>
+        <v>813</v>
       </c>
       <c r="C116" s="34" t="s">
-        <v>831</v>
+        <v>814</v>
       </c>
       <c r="D116" s="34" t="s">
-        <v>828</v>
+        <v>815</v>
       </c>
       <c r="E116" s="34" t="s">
-        <v>834</v>
+        <v>816</v>
       </c>
       <c r="F116" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G116" s="35" t="s">
-        <v>833</v>
+        <v>817</v>
       </c>
       <c r="H116" s="34" t="s">
         <v>26</v>
@@ -9655,16 +9868,16 @@
         <v>743</v>
       </c>
       <c r="B117" s="34" t="s">
-        <v>832</v>
+        <v>240</v>
       </c>
       <c r="C117" s="34" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="D117" s="34" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E117" s="34" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F117" s="34" t="s">
         <v>24</v>
@@ -9681,22 +9894,22 @@
         <v>743</v>
       </c>
       <c r="B118" s="34" t="s">
-        <v>240</v>
+        <v>832</v>
       </c>
       <c r="C118" s="34" t="s">
-        <v>842</v>
+        <v>830</v>
       </c>
       <c r="D118" s="34" t="s">
-        <v>859</v>
+        <v>829</v>
       </c>
       <c r="E118" s="34" t="s">
-        <v>860</v>
+        <v>835</v>
       </c>
       <c r="F118" s="34" t="s">
         <v>24</v>
       </c>
       <c r="G118" s="35" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="H118" s="34" t="s">
         <v>26</v>
@@ -9707,16 +9920,16 @@
         <v>743</v>
       </c>
       <c r="B119" s="34" t="s">
-        <v>845</v>
+        <v>240</v>
       </c>
       <c r="C119" s="34" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="D119" s="34" t="s">
-        <v>844</v>
+        <v>859</v>
       </c>
       <c r="E119" s="34" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F119" s="34" t="s">
         <v>24</v>
@@ -9725,6 +9938,32 @@
         <v>843</v>
       </c>
       <c r="H119" s="34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+      <c r="A120" s="34" t="s">
+        <v>743</v>
+      </c>
+      <c r="B120" s="34" t="s">
+        <v>845</v>
+      </c>
+      <c r="C120" s="34" t="s">
+        <v>847</v>
+      </c>
+      <c r="D120" s="34" t="s">
+        <v>844</v>
+      </c>
+      <c r="E120" s="34" t="s">
+        <v>861</v>
+      </c>
+      <c r="F120" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G120" s="35" t="s">
+        <v>843</v>
+      </c>
+      <c r="H120" s="34" t="s">
         <v>26</v>
       </c>
     </row>
